--- a/Other/File_S3.xlsx
+++ b/Other/File_S3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share\manuscripts\02_S2018_L227_111314_metagenomes\08_vs7_revision_01\03_edits\supplementary_materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share\work_copied\02_S2018_L227_111314_metagenomes\11_resubmission_round2\Marcus_edits\supplementary_materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090E5A73-874F-4A50-8E72-BA16324E17D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31371D7-FD1A-486A-A543-E3B891C43D0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{5C436660-865D-4DDC-A47F-F1E40B851131}"/>
   </bookViews>
@@ -75,13 +75,13 @@
     <t>13, 15, 16.5</t>
   </si>
   <si>
-    <t>[37, 38]</t>
-  </si>
-  <si>
-    <t>[37, 39]</t>
-  </si>
-  <si>
-    <t>[53, 54, 55]</t>
+    <t>[4, 31]</t>
+  </si>
+  <si>
+    <t>[4, 32]</t>
+  </si>
+  <si>
+    <t>[46-48]</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408169CB-7416-4900-9564-4AF76F4E87B3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/Other/File_S3.xlsx
+++ b/Other/File_S3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share\work_copied\02_S2018_L227_111314_metagenomes\11_resubmission_round2\Marcus_edits\supplementary_materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share\work_copied\02_S2018_L227_111314_metagenomes\11_resubmission_round2\FINAL\supplementary_materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31371D7-FD1A-486A-A543-E3B891C43D0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CA3E33-6142-46B7-B2FF-55561B59B918}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{5C436660-865D-4DDC-A47F-F1E40B851131}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,11 +98,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,17 +126,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -450,110 +480,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408169CB-7416-4900-9564-4AF76F4E87B3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="14.20703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.89453125" customWidth="1"/>
-    <col min="5" max="5" width="21.41796875" customWidth="1"/>
-    <col min="6" max="6" width="9.9453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.20703125" customWidth="1"/>
+    <col min="1" max="1" width="5.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.05078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26171875" customWidth="1"/>
+    <col min="5" max="5" width="20.1015625" customWidth="1"/>
+    <col min="6" max="6" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="2" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
         <v>227</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+    <row r="3" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
         <v>442</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+    <row r="4" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
         <v>304</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
